--- a/Gestion Proyecto/Gantt.xlsx
+++ b/Gestion Proyecto/Gantt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.CURSOS\Curso_Docker_K8S\Gestion Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curso_Docker_K8S\Gestion Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7629557-5156-4C79-9C9B-8548C48E5BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Task</t>
   </si>
@@ -113,41 +112,32 @@
 utilizando Kubernetes Secrets y ConfigMaps</t>
   </si>
   <si>
+    <t>Jonathan Ramirez</t>
+  </si>
+  <si>
     <t>Crear micro Gestión de Eventos (Microservicio 1: ms-eventos)
 Permitir registrar, consultar, actualizar y eliminar eventos.
 o Proveer una API REST para consultar la información de los eventos
 disponibles, incluyendo:
-▪ Nombre del evento.
-▪ Descripción.
-▪ Fecha y hora.
-▪ Ubicación.
-▪ Capacidad máxima.</t>
-  </si>
-  <si>
-    <t>Crear micro Gestión de Inscripciones (Microservicio 2: ms-participantes)
-Permitir a los participantes inscribirse en eventos existentes.
-o Validar que el evento al que se intenta inscribir el participante existe
-(consultando el Microservicio 1).
+▪ Nombre del evento , Descripción , Fecha y hora ,  Ubicación y Capacidad máxima.</t>
+  </si>
+  <si>
+    <t>Comunicación entre Microservicios
+El Microservicio 2 debe consumir los datos del Microservicio 1 para validar la existencia de eventos.
+Utilizar una API REST o mensajería asincrónica para la comunicación entre ambos microservicios.</t>
+  </si>
+  <si>
+    <t>Crear micro Gestión de Inscripciones (Microservicio 2: ms-participantes) Permitir a los participantes inscribirse en eventos existentes.
+o Validar que el evento al que se intenta inscribir el participante existe (consultando el Microservicio 1).
 o Listar todas las inscripciones realizadas por un participante.
-o Registrar las inscripciones en una base de datos y almacenar únicamente el
-ID del evento (no duplicar información).
-o Manejar restricciones como:
-▪ Capacidad máxima del evento.
-▪ Evitar duplicados en las inscripciones para un mismo participante y
-evento.</t>
-  </si>
-  <si>
-    <t>Comunicación entre Microservicios
-El Microservicio 2 debe consumir los datos del Microservicio 1 para validar la
-existencia de eventos.
-o Utilizar una API REST o mensajería asincrónica para la comunicación entre
-ambos microservicios.</t>
+o Registrar las inscripciones en una base de datos y almacenar únicamente el ID del evento (no duplicar información).
+o Manejar restricciones como:  Capacidad máxima del evento , Evitar duplicados en las inscripciones para un mismo participante y evento.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,9 +196,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -239,7 +228,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,332 +519,356 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="81.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="105.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="E2" s="13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
         <v>4.2</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
         <v>4.3</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
         <v>5.2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
         <v>6.1</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
         <v>6.2</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>7</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
         <v>7.1</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
         <v>7.2</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>8</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
         <v>8.1</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>9</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
         <v>9.1</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>10</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
         <v>10.1</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>11</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1">
         <v>11.1</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
